--- a/data/trans_orig/P78A_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P78A_2023-Clase-trans_orig.xlsx
@@ -741,7 +741,7 @@
         <v>167338</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>160802</v>
+        <v>160883</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>168980</v>
@@ -750,7 +750,7 @@
         <v>0.9902823570725094</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9516045809145455</v>
+        <v>0.9520809618602353</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>1</v>
@@ -775,7 +775,7 @@
         <v>322134</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>315445</v>
+        <v>315773</v>
       </c>
       <c r="T4" s="5" t="n">
         <v>323776</v>
@@ -784,7 +784,7 @@
         <v>0.9949283190242995</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9742684787028103</v>
+        <v>0.9752809864943104</v>
       </c>
       <c r="W4" s="6" t="n">
         <v>1</v>
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8178</v>
+        <v>8097</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.009717642927490607</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04839541908545454</v>
+        <v>0.04791903813976477</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8331</v>
+        <v>8003</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.005071680975700617</v>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02573152129718962</v>
+        <v>0.0247190135056896</v>
       </c>
     </row>
     <row r="6">
@@ -1111,16 +1111,16 @@
         <v>198962</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>192947</v>
+        <v>193999</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>201184</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9889532066383767</v>
+        <v>0.9889532066383766</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9590583713303763</v>
+        <v>0.96428694544475</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1145,7 +1145,7 @@
         <v>308878</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>302839</v>
+        <v>301754</v>
       </c>
       <c r="T10" s="5" t="n">
         <v>311100</v>
@@ -1154,7 +1154,7 @@
         <v>0.9928561949189169</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9734452401371178</v>
+        <v>0.9699566589471164</v>
       </c>
       <c r="W10" s="6" t="n">
         <v>1</v>
@@ -1177,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8237</v>
+        <v>7185</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.01104679336162334</v>
+        <v>0.01104679336162333</v>
       </c>
       <c r="H11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04094162866962534</v>
+        <v>0.03571305455525021</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>8261</v>
+        <v>9346</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.007143805081083129</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02655475986288209</v>
+        <v>0.03004334105288245</v>
       </c>
     </row>
     <row r="12">
@@ -1312,19 +1312,19 @@
         <v>510561</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>497752</v>
+        <v>499995</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>516151</v>
+        <v>515808</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.9837747980388626</v>
+        <v>0.9837747980388628</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9590935444851287</v>
+        <v>0.9634152314474447</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9945455107807027</v>
+        <v>0.9938843012974561</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>612</v>
@@ -1333,16 +1333,16 @@
         <v>395076</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>392465</v>
+        <v>392596</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>396216</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.997122340659767</v>
+        <v>0.9971223406597671</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9905319638299644</v>
+        <v>0.9908637784846883</v>
       </c>
       <c r="P13" s="6" t="n">
         <v>1</v>
@@ -1354,19 +1354,19 @@
         <v>905637</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>892998</v>
+        <v>893291</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>910779</v>
+        <v>911213</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9895533427109164</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9757429677998276</v>
+        <v>0.9760628780523443</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9951720148538545</v>
+        <v>0.99564539280963</v>
       </c>
     </row>
     <row r="14">
@@ -1383,19 +1383,19 @@
         <v>8421</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2831</v>
+        <v>3174</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>21230</v>
+        <v>18987</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0162252019611374</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005454489219297161</v>
+        <v>0.006115698702543909</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04090645551487076</v>
+        <v>0.03658476855255512</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3751</v>
+        <v>3620</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.002877659340232947</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.009468036170035613</v>
+        <v>0.009136221515311559</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8</v>
@@ -1425,19 +1425,19 @@
         <v>9561</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4419</v>
+        <v>3985</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>22200</v>
+        <v>21907</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01044665728908359</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.004827985146145305</v>
+        <v>0.004354607190369915</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02425703220017233</v>
+        <v>0.0239371219476553</v>
       </c>
     </row>
     <row r="15">
@@ -1529,19 +1529,19 @@
         <v>257033</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>252311</v>
+        <v>252307</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>258984</v>
+        <v>258981</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.9892328089918879</v>
+        <v>0.9892328089918877</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9710591432812128</v>
+        <v>0.9710425883046955</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9967404198313612</v>
+        <v>0.9967303521782503</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>874</v>
@@ -1550,7 +1550,7 @@
         <v>531892</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>529483</v>
+        <v>529140</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>532683</v>
@@ -1559,7 +1559,7 @@
         <v>0.9985159062040125</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9939925681354195</v>
+        <v>0.993349272368255</v>
       </c>
       <c r="P16" s="6" t="n">
         <v>1</v>
@@ -1571,19 +1571,19 @@
         <v>788926</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>783763</v>
+        <v>783586</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>791620</v>
+        <v>791584</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.9954723794308735</v>
+        <v>0.9954723794308733</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9889584412855884</v>
+        <v>0.9887340862860921</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9988721151962663</v>
+        <v>0.9988268971481353</v>
       </c>
     </row>
     <row r="17">
@@ -1600,19 +1600,19 @@
         <v>2798</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7520</v>
+        <v>7524</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01076719100811223</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.003259580168638788</v>
+        <v>0.003269647821749704</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02894085671878718</v>
+        <v>0.02895741169530462</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3200</v>
+        <v>3543</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.001484093795987462</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.006007431864580628</v>
+        <v>0.006650727631744313</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4</v>
@@ -1642,19 +1642,19 @@
         <v>3588</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>894</v>
+        <v>930</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>8751</v>
+        <v>8928</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.004527620569126533</v>
+        <v>0.004527620569126532</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.001127884803733931</v>
+        <v>0.001173102851864692</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01104155871441197</v>
+        <v>0.01126591371390764</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>25057</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>15048</v>
+        <v>14021</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>43638</v>
+        <v>41647</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.1058401758461102</v>
+        <v>0.1058401758461103</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06356036355172791</v>
+        <v>0.05922522869472711</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1843263970433037</v>
+        <v>0.1759140545233856</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>565</v>
@@ -1767,19 +1767,19 @@
         <v>321741</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>294508</v>
+        <v>295866</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>346142</v>
+        <v>347367</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3818549355678701</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3495327457088658</v>
+        <v>0.3511452914246312</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4108147385857924</v>
+        <v>0.4122689251385709</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>579</v>
@@ -1788,19 +1788,19 @@
         <v>346798</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>319641</v>
+        <v>316245</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>380529</v>
+        <v>377924</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3213121247370848</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2961503722810399</v>
+        <v>0.293004090114617</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3525635984605699</v>
+        <v>0.350150678814362</v>
       </c>
     </row>
     <row r="20">
@@ -1817,19 +1817,19 @@
         <v>211688</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>193107</v>
+        <v>195098</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>221697</v>
+        <v>222724</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8941598241538897</v>
+        <v>0.8941598241538898</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8156736029566956</v>
+        <v>0.8240859454766145</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9364396364482721</v>
+        <v>0.9407747713052727</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>591</v>
@@ -1838,19 +1838,19 @@
         <v>520834</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>496433</v>
+        <v>495208</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>548067</v>
+        <v>546709</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6181450644321299</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5891852614142079</v>
+        <v>0.5877310748614295</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6504672542911342</v>
+        <v>0.6488547085753689</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>688</v>
@@ -1859,19 +1859,19 @@
         <v>732521</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>698790</v>
+        <v>701395</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>759678</v>
+        <v>763074</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.6786878752629153</v>
+        <v>0.6786878752629152</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6474364015394302</v>
+        <v>0.6498493211856379</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7038496277189601</v>
+        <v>0.7069959098853831</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>1321745</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1277911</v>
+        <v>1278984</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1360119</v>
+        <v>1361648</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8535562569669928</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8252492413861305</v>
+        <v>0.8259419746453042</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8783376150388347</v>
+        <v>0.8793247505811502</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2693</v>
@@ -1984,19 +1984,19 @@
         <v>1664442</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1624488</v>
+        <v>1622151</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1703413</v>
+        <v>1702782</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7609900052607347</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7427229528180427</v>
+        <v>0.7416544433602498</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7788078859398574</v>
+        <v>0.7785191083549347</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4241</v>
@@ -2005,19 +2005,19 @@
         <v>2986187</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2925550</v>
+        <v>2920901</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3040447</v>
+        <v>3044526</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7993601709612603</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7831285089935014</v>
+        <v>0.7818840495003141</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8138849584669713</v>
+        <v>0.814976691850015</v>
       </c>
     </row>
     <row r="23">
@@ -2034,19 +2034,19 @@
         <v>226770</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>188396</v>
+        <v>186867</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>270604</v>
+        <v>269531</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1464437430330073</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1216623849611651</v>
+        <v>0.12067524941885</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1747507586138695</v>
+        <v>0.1740580253546959</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>594</v>
@@ -2055,19 +2055,19 @@
         <v>522764</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>483793</v>
+        <v>484424</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>562718</v>
+        <v>565055</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2390099947392653</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2211921140601426</v>
+        <v>0.2214808916450654</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2572770471819573</v>
+        <v>0.2583455566397502</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>703</v>
@@ -2076,19 +2076,19 @@
         <v>749534</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>695274</v>
+        <v>691195</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>810171</v>
+        <v>814820</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2006398290387397</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1861150415330285</v>
+        <v>0.185023308149985</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2168714910064986</v>
+        <v>0.2181159504996858</v>
       </c>
     </row>
     <row r="24">
